--- a/测试报告/本地化平台测试报告.xlsx
+++ b/测试报告/本地化平台测试报告.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\Localization-platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\Localization-platform\测试报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0B8613-3199-44A6-BB1A-D7C7DD9925DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA5D33A-F475-4446-B9C7-BF370D2DD7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10250" yWindow="8390" windowWidth="28800" windowHeight="15530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7360" yWindow="5470" windowWidth="28800" windowHeight="15530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,11 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key标签至少三个
-where至少一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有警告弹出，未新建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +69,22 @@
   </si>
   <si>
     <t>添加where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通新建、复制、变更后的保存有敏感词校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮，生成input,最多生成两个，然后按钮消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮，生成input,最多生成三个，然后按钮消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号，姓名，籍贯为必须输入项，未输入则需弹出警告，并拒绝新建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,10 +134,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,7 +146,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,66 +428,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.9140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.25" customWidth="1"/>
     <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
